--- a/Loyalty TeastCases/Test_cases_Loyalty project.xlsx
+++ b/Loyalty TeastCases/Test_cases_Loyalty project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC441B18-C8DA-47C4-9910-F5DB4650EA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{148966A8-6009-48DF-908C-67D1E9808D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{373C63FD-CBFE-48B4-AA4E-3615A1E177E4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="339">
   <si>
     <t>VCQRU</t>
   </si>
@@ -1080,6 +1080,9 @@
   </si>
   <si>
     <t xml:space="preserve">admin should be able to edit the filed name. </t>
+  </si>
+  <si>
+    <t>asddd</t>
   </si>
 </sst>
 </file>
@@ -1419,32 +1422,32 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1809,42 +1812,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="15.5">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
@@ -1892,15 +1895,15 @@
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="6"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="37" t="s">
@@ -1930,8 +1933,8 @@
       <c r="A13" s="12"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6"/>
@@ -1991,11 +1994,11 @@
       <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="37" t="s">
@@ -2013,31 +2016,25 @@
       <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="15">
         <v>1</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -2050,6 +2047,12 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3824,7 +3827,9 @@
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="23" t="s">
+        <v>338</v>
+      </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
       <c r="F18" s="22"/>
